--- a/delectable.xlsx
+++ b/delectable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Historiques</t>
   </si>
@@ -228,6 +228,117 @@
   </si>
   <si>
     <t>Etapes</t>
+  </si>
+  <si>
+    <t>ust_id</t>
+  </si>
+  <si>
+    <t>ust_name</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>ust_creatDate</t>
+  </si>
+  <si>
+    <t>ust_editDate</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>tag_creatDate</t>
+  </si>
+  <si>
+    <t>tag_editDate</t>
+  </si>
+  <si>
+    <t>like_id</t>
+  </si>
+  <si>
+    <t>like_creatDate</t>
+  </si>
+  <si>
+    <t>like_editDate</t>
+  </si>
+  <si>
+    <t>video_id</t>
+  </si>
+  <si>
+    <t>video_creatDate</t>
+  </si>
+  <si>
+    <t>video_editDate</t>
+  </si>
+  <si>
+    <t>video_ogg</t>
+  </si>
+  <si>
+    <t>video_webm</t>
+  </si>
+  <si>
+    <t>video_mp4</t>
+  </si>
+  <si>
+    <t>video_name</t>
+  </si>
+  <si>
+    <t>video_desc</t>
+  </si>
+  <si>
+    <t>video_lenght</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>img_creatDate</t>
+  </si>
+  <si>
+    <t>img_editDate</t>
+  </si>
+  <si>
+    <t>img_name</t>
+  </si>
+  <si>
+    <t>img_desc</t>
+  </si>
+  <si>
+    <t>img_original</t>
+  </si>
+  <si>
+    <t>img_100</t>
+  </si>
+  <si>
+    <t>img_75</t>
+  </si>
+  <si>
+    <t>img_50</t>
+  </si>
+  <si>
+    <t>img_25</t>
+  </si>
+  <si>
+    <t>img_isValid</t>
+  </si>
+  <si>
+    <t>video_isValid</t>
+  </si>
+  <si>
+    <t>regim_id</t>
+  </si>
+  <si>
+    <t>regim_name</t>
+  </si>
+  <si>
+    <t>regim_creatDate</t>
+  </si>
+  <si>
+    <t>regim_editDate</t>
   </si>
 </sst>
 </file>
@@ -316,12 +427,12 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895C6B4B-3FA8-4755-931B-B4A1B51B50B9}">
-  <dimension ref="B1:E46"/>
+  <dimension ref="B1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,18 +760,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -668,7 +779,7 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -676,7 +787,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -684,7 +795,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -692,7 +803,7 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -700,7 +811,7 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -708,31 +819,31 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -740,7 +851,7 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -748,15 +859,15 @@
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -764,184 +875,367 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
